--- a/bangCV.xlsx
+++ b/bangCV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QTDA_CNTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QTDA_CNTT\github\PMMNM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F96B746-1FDC-46B0-AE09-3622A3D0677E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93E7161-EA9C-4607-A2CE-B1713CF48AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7484EFA5-008F-4C02-84EE-E6FDB101D8F4}"/>
   </bookViews>
@@ -417,10 +417,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9941CF9-D4AB-47E4-A12C-A8289DE6197A}">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="B61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -759,36 +759,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
@@ -843,10 +843,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
-        <v>1</v>
-      </c>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -877,8 +877,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
@@ -907,8 +907,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
@@ -937,8 +937,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
@@ -967,8 +967,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -997,8 +997,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1027,8 +1027,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1091,10 +1091,10 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
-        <v>2</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="21">
+        <v>2</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1127,8 +1127,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1159,8 +1159,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1193,9 +1193,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1226,9 +1226,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1259,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1325,10 +1325,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
-        <v>3</v>
-      </c>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="21">
+        <v>3</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1361,8 +1361,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1393,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1425,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1457,8 +1457,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
@@ -1489,8 +1489,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1555,10 +1555,10 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
+      <c r="A26" s="21">
         <v>4</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1591,8 +1591,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="2" t="s">
         <v>30</v>
       </c>
@@ -1625,8 +1625,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
       <c r="D28" s="2" t="s">
         <v>31</v>
       </c>
@@ -1659,8 +1659,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
       <c r="E29" s="2" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1691,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
       <c r="E30" s="2" t="s">
         <v>33</v>
       </c>
@@ -1723,8 +1723,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1755,8 +1755,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="2" t="s">
         <v>34</v>
       </c>
@@ -1821,10 +1821,10 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="20">
+      <c r="A34" s="21">
         <v>5</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1858,8 +1858,8 @@
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="2" t="s">
         <v>38</v>
       </c>
@@ -1892,8 +1892,8 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="D36" s="2" t="s">
         <v>39</v>
       </c>
@@ -1924,8 +1924,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
       <c r="D37" s="2" t="s">
         <v>40</v>
       </c>
@@ -1956,8 +1956,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
       <c r="D38" s="2" t="s">
         <v>41</v>
       </c>
@@ -1988,8 +1988,8 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
       <c r="D39" s="2" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2020,8 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
       <c r="D40" s="2" t="s">
         <v>43</v>
       </c>
@@ -2052,8 +2052,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
       <c r="D41" s="2" t="s">
         <v>44</v>
       </c>
@@ -2084,8 +2084,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="2" t="s">
         <v>45</v>
       </c>
@@ -2150,10 +2150,10 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="20">
+      <c r="A44" s="21">
         <v>6</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2186,8 +2186,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="2" t="s">
         <v>48</v>
       </c>
@@ -2220,8 +2220,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
       <c r="D46" s="2" t="s">
         <v>49</v>
       </c>
@@ -2254,8 +2254,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
       <c r="E47" s="2" t="s">
         <v>50</v>
       </c>
@@ -2286,8 +2286,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
       <c r="E48" s="2" t="s">
         <v>51</v>
       </c>
@@ -2318,8 +2318,8 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
       <c r="D49" s="2" t="s">
         <v>52</v>
       </c>
@@ -2351,8 +2351,8 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
       <c r="E50" s="2" t="s">
         <v>57</v>
       </c>
@@ -2383,8 +2383,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
       <c r="E51" s="2" t="s">
         <v>58</v>
       </c>
@@ -2415,8 +2415,8 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
       <c r="D52" s="2" t="s">
         <v>53</v>
       </c>
@@ -2448,8 +2448,8 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
       <c r="E53" s="2" t="s">
         <v>59</v>
       </c>
@@ -2480,8 +2480,8 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
       <c r="E54" s="2" t="s">
         <v>62</v>
       </c>
@@ -2512,8 +2512,8 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
       <c r="D55" s="2" t="s">
         <v>54</v>
       </c>
@@ -2545,8 +2545,8 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
       <c r="E56" s="2" t="s">
         <v>61</v>
       </c>
@@ -2577,8 +2577,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
       <c r="E57" s="2" t="s">
         <v>60</v>
       </c>
@@ -2609,8 +2609,8 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
       <c r="D58" s="2" t="s">
         <v>55</v>
       </c>
@@ -2642,8 +2642,8 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
       <c r="E59" s="2" t="s">
         <v>63</v>
       </c>
@@ -2674,8 +2674,8 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
       <c r="E60" s="2" t="s">
         <v>64</v>
       </c>
@@ -2706,8 +2706,8 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
       <c r="D61" s="2" t="s">
         <v>56</v>
       </c>
@@ -2739,8 +2739,8 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
       <c r="E62" s="2" t="s">
         <v>65</v>
       </c>
@@ -2771,8 +2771,8 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
       <c r="E63" s="2" t="s">
         <v>66</v>
       </c>
@@ -2803,8 +2803,8 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="2" t="s">
         <v>67</v>
       </c>
@@ -2835,8 +2835,8 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="2" t="s">
         <v>68</v>
       </c>
@@ -2867,8 +2867,8 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="2" t="s">
         <v>69</v>
       </c>
@@ -2899,8 +2899,8 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="2" t="s">
         <v>70</v>
       </c>
@@ -2965,10 +2965,10 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="20">
+      <c r="A69" s="21">
         <v>7</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="21" t="s">
         <v>74</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -3001,8 +3001,8 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="2" t="s">
         <v>72</v>
       </c>
@@ -3033,8 +3033,8 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="2" t="s">
         <v>73</v>
       </c>
@@ -3067,28 +3067,34 @@
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I77" s="7"/>
     </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F79" s="7">
+        <f>SUM(L68+L43+L33+L25+L18+L11+L3)</f>
+        <v>85.983333333333334</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="A44:A67"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B44:B67"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B12:B17"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="C1:E2"/>
     <mergeCell ref="G1:L1"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="A44:A67"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="B44:B67"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A34:A42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bangCV.xlsx
+++ b/bangCV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QTDA_CNTT\github\PMMNM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93E7161-EA9C-4607-A2CE-B1713CF48AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E038849-E63E-4A88-AFC8-5C931605A496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7484EFA5-008F-4C02-84EE-E6FDB101D8F4}"/>
   </bookViews>
@@ -417,10 +417,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9941CF9-D4AB-47E4-A12C-A8289DE6197A}">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -759,36 +759,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
@@ -843,10 +843,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -877,8 +877,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
@@ -907,8 +907,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
@@ -937,8 +937,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
@@ -967,8 +967,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -997,8 +997,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1027,8 +1027,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1091,10 +1091,10 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
-        <v>2</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="20">
+        <v>2</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1127,8 +1127,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1159,8 +1159,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1193,9 +1193,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1226,9 +1226,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1259,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1325,10 +1325,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
-        <v>3</v>
-      </c>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="20">
+        <v>3</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1361,8 +1361,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1393,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1425,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1457,8 +1457,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
@@ -1489,8 +1489,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1555,10 +1555,10 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <v>4</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1591,8 +1591,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="2" t="s">
         <v>30</v>
       </c>
@@ -1625,8 +1625,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
       <c r="D28" s="2" t="s">
         <v>31</v>
       </c>
@@ -1659,8 +1659,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
       <c r="E29" s="2" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1691,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
       <c r="E30" s="2" t="s">
         <v>33</v>
       </c>
@@ -1723,8 +1723,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1755,8 +1755,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="2" t="s">
         <v>34</v>
       </c>
@@ -1821,10 +1821,10 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="21">
+      <c r="A34" s="20">
         <v>5</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1858,8 +1858,8 @@
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="2" t="s">
         <v>38</v>
       </c>
@@ -1892,8 +1892,8 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
       <c r="D36" s="2" t="s">
         <v>39</v>
       </c>
@@ -1924,8 +1924,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
       <c r="D37" s="2" t="s">
         <v>40</v>
       </c>
@@ -1956,8 +1956,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
       <c r="D38" s="2" t="s">
         <v>41</v>
       </c>
@@ -1988,8 +1988,8 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
       <c r="D39" s="2" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2020,8 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
       <c r="D40" s="2" t="s">
         <v>43</v>
       </c>
@@ -2052,8 +2052,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
       <c r="D41" s="2" t="s">
         <v>44</v>
       </c>
@@ -2084,8 +2084,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="2" t="s">
         <v>45</v>
       </c>
@@ -2150,10 +2150,10 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="21">
+      <c r="A44" s="20">
         <v>6</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2186,8 +2186,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="2" t="s">
         <v>48</v>
       </c>
@@ -2220,8 +2220,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
       <c r="D46" s="2" t="s">
         <v>49</v>
       </c>
@@ -2254,8 +2254,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
       <c r="E47" s="2" t="s">
         <v>50</v>
       </c>
@@ -2286,8 +2286,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
       <c r="E48" s="2" t="s">
         <v>51</v>
       </c>
@@ -2318,8 +2318,8 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
       <c r="D49" s="2" t="s">
         <v>52</v>
       </c>
@@ -2351,8 +2351,8 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
       <c r="E50" s="2" t="s">
         <v>57</v>
       </c>
@@ -2383,8 +2383,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
       <c r="E51" s="2" t="s">
         <v>58</v>
       </c>
@@ -2415,8 +2415,8 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
       <c r="D52" s="2" t="s">
         <v>53</v>
       </c>
@@ -2448,8 +2448,8 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
       <c r="E53" s="2" t="s">
         <v>59</v>
       </c>
@@ -2480,8 +2480,8 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
       <c r="E54" s="2" t="s">
         <v>62</v>
       </c>
@@ -2512,8 +2512,8 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
       <c r="D55" s="2" t="s">
         <v>54</v>
       </c>
@@ -2545,8 +2545,8 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
       <c r="E56" s="2" t="s">
         <v>61</v>
       </c>
@@ -2577,8 +2577,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
       <c r="E57" s="2" t="s">
         <v>60</v>
       </c>
@@ -2609,8 +2609,8 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
       <c r="D58" s="2" t="s">
         <v>55</v>
       </c>
@@ -2642,8 +2642,8 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
       <c r="E59" s="2" t="s">
         <v>63</v>
       </c>
@@ -2674,8 +2674,8 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
       <c r="E60" s="2" t="s">
         <v>64</v>
       </c>
@@ -2706,8 +2706,8 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
       <c r="D61" s="2" t="s">
         <v>56</v>
       </c>
@@ -2739,8 +2739,8 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
       <c r="E62" s="2" t="s">
         <v>65</v>
       </c>
@@ -2771,8 +2771,8 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
       <c r="E63" s="2" t="s">
         <v>66</v>
       </c>
@@ -2803,8 +2803,8 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="2" t="s">
         <v>67</v>
       </c>
@@ -2835,8 +2835,8 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="2" t="s">
         <v>68</v>
       </c>
@@ -2867,8 +2867,8 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="2" t="s">
         <v>69</v>
       </c>
@@ -2899,8 +2899,8 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="2" t="s">
         <v>70</v>
       </c>
@@ -2965,10 +2965,10 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="21">
+      <c r="A69" s="20">
         <v>7</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -3001,8 +3001,8 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="2" t="s">
         <v>72</v>
       </c>
@@ -3033,8 +3033,8 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="2" t="s">
         <v>73</v>
       </c>
@@ -3064,37 +3064,57 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G75" s="7">
+        <f t="shared" ref="G75:K75" si="25">SUM(G68+G43+G33+G25+G18+G11+G3)</f>
+        <v>39.5</v>
+      </c>
+      <c r="H75" s="7">
+        <f t="shared" si="25"/>
+        <v>78</v>
+      </c>
+      <c r="I75" s="7">
+        <f t="shared" si="25"/>
+        <v>117.5</v>
+      </c>
+      <c r="J75" s="7">
+        <f t="shared" si="25"/>
+        <v>78.166666666666671</v>
+      </c>
+      <c r="K75" s="7">
+        <f t="shared" si="25"/>
+        <v>7.8166666666666664</v>
+      </c>
+      <c r="L75" s="7">
+        <f>SUM(L68+L43+L33+L25+L18+L11+L3)</f>
+        <v>85.983333333333334</v>
+      </c>
+    </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I77" s="7"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F79" s="7">
-        <f>SUM(L68+L43+L33+L25+L18+L11+L3)</f>
-        <v>85.983333333333334</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="A44:A67"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B44:B67"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A26:A32"/>
     <mergeCell ref="A34:A42"/>
-    <mergeCell ref="A44:A67"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="B44:B67"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="G1:L1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bangCV.xlsx
+++ b/bangCV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QTDA_CNTT\github\PMMNM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E038849-E63E-4A88-AFC8-5C931605A496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181CFB7D-1A9F-4197-B5B6-8B29E93D17C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7484EFA5-008F-4C02-84EE-E6FDB101D8F4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t>STT</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>7.0 Kết thúc dự án và chuyển giao hệ thống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng thời gian các công việc </t>
   </si>
 </sst>
 </file>
@@ -417,10 +420,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,7 +743,7 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -759,36 +762,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
@@ -843,10 +846,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
-        <v>1</v>
-      </c>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -877,8 +880,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
@@ -907,8 +910,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
@@ -937,8 +940,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
@@ -967,8 +970,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -997,8 +1000,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1027,8 +1030,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1091,10 +1094,10 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
-        <v>2</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="21">
+        <v>2</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1127,8 +1130,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1159,8 +1162,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1193,9 +1196,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1226,9 +1229,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1262,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1325,10 +1328,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
-        <v>3</v>
-      </c>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="21">
+        <v>3</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1361,8 +1364,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1396,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1428,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1457,8 +1460,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
@@ -1489,8 +1492,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1555,10 +1558,10 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
+      <c r="A26" s="21">
         <v>4</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1591,8 +1594,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="2" t="s">
         <v>30</v>
       </c>
@@ -1625,8 +1628,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
       <c r="D28" s="2" t="s">
         <v>31</v>
       </c>
@@ -1659,8 +1662,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
       <c r="E29" s="2" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1694,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
       <c r="E30" s="2" t="s">
         <v>33</v>
       </c>
@@ -1723,8 +1726,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1755,8 +1758,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="2" t="s">
         <v>34</v>
       </c>
@@ -1821,10 +1824,10 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="20">
+      <c r="A34" s="21">
         <v>5</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1858,8 +1861,8 @@
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="2" t="s">
         <v>38</v>
       </c>
@@ -1892,8 +1895,8 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="D36" s="2" t="s">
         <v>39</v>
       </c>
@@ -1924,8 +1927,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
       <c r="D37" s="2" t="s">
         <v>40</v>
       </c>
@@ -1956,8 +1959,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
       <c r="D38" s="2" t="s">
         <v>41</v>
       </c>
@@ -1988,8 +1991,8 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
       <c r="D39" s="2" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2023,8 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
       <c r="D40" s="2" t="s">
         <v>43</v>
       </c>
@@ -2052,8 +2055,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
       <c r="D41" s="2" t="s">
         <v>44</v>
       </c>
@@ -2084,8 +2087,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="2" t="s">
         <v>45</v>
       </c>
@@ -2150,10 +2153,10 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="20">
+      <c r="A44" s="21">
         <v>6</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2186,8 +2189,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="2" t="s">
         <v>48</v>
       </c>
@@ -2220,8 +2223,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
       <c r="D46" s="2" t="s">
         <v>49</v>
       </c>
@@ -2254,8 +2257,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
       <c r="E47" s="2" t="s">
         <v>50</v>
       </c>
@@ -2286,8 +2289,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
       <c r="E48" s="2" t="s">
         <v>51</v>
       </c>
@@ -2318,8 +2321,8 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
       <c r="D49" s="2" t="s">
         <v>52</v>
       </c>
@@ -2351,8 +2354,8 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
       <c r="E50" s="2" t="s">
         <v>57</v>
       </c>
@@ -2383,8 +2386,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
       <c r="E51" s="2" t="s">
         <v>58</v>
       </c>
@@ -2415,8 +2418,8 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
       <c r="D52" s="2" t="s">
         <v>53</v>
       </c>
@@ -2448,8 +2451,8 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
       <c r="E53" s="2" t="s">
         <v>59</v>
       </c>
@@ -2480,8 +2483,8 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
       <c r="E54" s="2" t="s">
         <v>62</v>
       </c>
@@ -2512,8 +2515,8 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
       <c r="D55" s="2" t="s">
         <v>54</v>
       </c>
@@ -2545,8 +2548,8 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
       <c r="E56" s="2" t="s">
         <v>61</v>
       </c>
@@ -2577,8 +2580,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
       <c r="E57" s="2" t="s">
         <v>60</v>
       </c>
@@ -2609,8 +2612,8 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
       <c r="D58" s="2" t="s">
         <v>55</v>
       </c>
@@ -2642,8 +2645,8 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
       <c r="E59" s="2" t="s">
         <v>63</v>
       </c>
@@ -2674,8 +2677,8 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
       <c r="E60" s="2" t="s">
         <v>64</v>
       </c>
@@ -2706,8 +2709,8 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
       <c r="D61" s="2" t="s">
         <v>56</v>
       </c>
@@ -2739,8 +2742,8 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
       <c r="E62" s="2" t="s">
         <v>65</v>
       </c>
@@ -2771,8 +2774,8 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
       <c r="E63" s="2" t="s">
         <v>66</v>
       </c>
@@ -2803,8 +2806,8 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="2" t="s">
         <v>67</v>
       </c>
@@ -2835,8 +2838,8 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="2" t="s">
         <v>68</v>
       </c>
@@ -2867,8 +2870,8 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="2" t="s">
         <v>69</v>
       </c>
@@ -2899,8 +2902,8 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="2" t="s">
         <v>70</v>
       </c>
@@ -2965,10 +2968,10 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="20">
+      <c r="A69" s="21">
         <v>7</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="21" t="s">
         <v>74</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -3001,8 +3004,8 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="2" t="s">
         <v>72</v>
       </c>
@@ -3033,8 +3036,8 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="2" t="s">
         <v>73</v>
       </c>
@@ -3065,6 +3068,9 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E75" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="G75" s="7">
         <f t="shared" ref="G75:K75" si="25">SUM(G68+G43+G33+G25+G18+G11+G3)</f>
         <v>39.5</v>
@@ -3095,26 +3101,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="A44:A67"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B44:B67"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B12:B17"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="C1:E2"/>
     <mergeCell ref="G1:L1"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="A44:A67"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="B44:B67"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A34:A42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
